--- a/sle/SLE_kegg_results.xlsx
+++ b/sle/SLE_kegg_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,7 +452,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>5/17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -461,30 +461,30 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.01257861635220126</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="H2">
-        <v>29.53459119496856</v>
+        <v>17.3732889382168</v>
       </c>
       <c r="I2">
-        <v>7.490282105790386</v>
+        <v>8.866614219196943</v>
       </c>
       <c r="J2">
-        <v>0.001671113161857142</v>
+        <v>6.85511818905619E-06</v>
       </c>
       <c r="K2">
-        <v>0.03358171475257295</v>
+        <v>0.0003105194256981485</v>
       </c>
       <c r="L2">
-        <v>0.01559522356930633</v>
+        <v>0.000243331011950596</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4599/91543</t>
+          <t>4599/3665/91543/3434/6772</t>
         </is>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -495,54 +495,576 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Infectious disease: parasitic</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hsa05140</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Leishmaniasis</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4/17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>79/9392</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="H3">
+        <v>27.97319434102755</v>
+      </c>
+      <c r="I3">
+        <v>10.25169951979685</v>
+      </c>
+      <c r="J3">
+        <v>1.015520074377986E-05</v>
+      </c>
+      <c r="K3">
+        <v>0.0003105194256981485</v>
+      </c>
+      <c r="L3">
+        <v>0.000243331011950596</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>6772/7043/3123/4689</t>
+        </is>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Infectious disease: viral</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>hsa05164</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Influenza A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5/17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>173/9392</t>
         </is>
       </c>
-      <c r="G3">
-        <v>0.0115606936416185</v>
-      </c>
-      <c r="H3">
-        <v>27.14450867052023</v>
-      </c>
-      <c r="I3">
-        <v>7.164089522676955</v>
-      </c>
-      <c r="J3">
-        <v>0.001975394985445468</v>
-      </c>
-      <c r="K3">
-        <v>0.03358171475257295</v>
-      </c>
-      <c r="L3">
-        <v>0.01559522356930633</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4599/91543</t>
-        </is>
-      </c>
-      <c r="N3">
-        <v>2</v>
+      <c r="G4">
+        <v>0.02890173410404624</v>
+      </c>
+      <c r="H4">
+        <v>15.96735804148249</v>
+      </c>
+      <c r="I4">
+        <v>8.46098713285874</v>
+      </c>
+      <c r="J4">
+        <v>1.035064752327162E-05</v>
+      </c>
+      <c r="K4">
+        <v>0.0003105194256981485</v>
+      </c>
+      <c r="L4">
+        <v>0.000243331011950596</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4599/3665/91543/6772/3123</t>
+        </is>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Immune disease</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>hsa05321</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Inflammatory bowel disease</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>66/9392</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="H5">
+        <v>25.11229946524064</v>
+      </c>
+      <c r="I5">
+        <v>8.370620134554176</v>
+      </c>
+      <c r="J5">
+        <v>0.0002100806676427982</v>
+      </c>
+      <c r="K5">
+        <v>0.004726815021962959</v>
+      </c>
+      <c r="L5">
+        <v>0.003704053876859863</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6772/7043/3123</t>
+        </is>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Infectious disease: parasitic</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hsa05145</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Toxoplasmosis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>112/9392</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>0.02678571428571428</v>
+      </c>
+      <c r="H6">
+        <v>14.79831932773109</v>
+      </c>
+      <c r="I6">
+        <v>6.255412554313999</v>
+      </c>
+      <c r="J6">
+        <v>0.0009938282298138533</v>
+      </c>
+      <c r="K6">
+        <v>0.01788890813664936</v>
+      </c>
+      <c r="L6">
+        <v>0.01401820871526909</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6772/7043/3123</t>
+        </is>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Infectious disease: viral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hsa05162</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Measles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>139/9392</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>0.02158273381294964</v>
+      </c>
+      <c r="H7">
+        <v>11.92382564536606</v>
+      </c>
+      <c r="I7">
+        <v>5.525042480988003</v>
+      </c>
+      <c r="J7">
+        <v>0.001852925289783161</v>
+      </c>
+      <c r="K7">
+        <v>0.02779387934674741</v>
+      </c>
+      <c r="L7">
+        <v>0.02177999902025821</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4599/3665/6772</t>
+        </is>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Infectious disease: viral</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hsa05161</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hepatitis B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>163/9392</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>0.01840490797546012</v>
+      </c>
+      <c r="H8">
+        <v>10.16817033561891</v>
+      </c>
+      <c r="I8">
+        <v>5.027984097560041</v>
+      </c>
+      <c r="J8">
+        <v>0.002918068263683397</v>
+      </c>
+      <c r="K8">
+        <v>0.03751802053307225</v>
+      </c>
+      <c r="L8">
+        <v>0.02940008626568234</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3665/6772/7043</t>
+        </is>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Infectious disease: bacterial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hsa05152</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tuberculosis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>182/9392</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>0.01648351648351648</v>
+      </c>
+      <c r="H9">
+        <v>9.106658047834518</v>
+      </c>
+      <c r="I9">
+        <v>4.702648036949044</v>
+      </c>
+      <c r="J9">
+        <v>0.00398423170315595</v>
+      </c>
+      <c r="K9">
+        <v>0.03984231703155949</v>
+      </c>
+      <c r="L9">
+        <v>0.03122146480835657</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6772/7043/3123</t>
+        </is>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Infectious disease: viral</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>hsa05168</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Herpes simplex virus 1 infection</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>182/9392</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>0.01648351648351648</v>
+      </c>
+      <c r="H10">
+        <v>9.106658047834518</v>
+      </c>
+      <c r="I10">
+        <v>4.702648036949044</v>
+      </c>
+      <c r="J10">
+        <v>0.00398423170315595</v>
+      </c>
+      <c r="K10">
+        <v>0.03984231703155949</v>
+      </c>
+      <c r="L10">
+        <v>0.03122146480835657</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3665/6772/3123</t>
+        </is>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Infectious disease: viral</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hsa05169</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Epstein-Barr virus infection</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>204/9392</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="H11">
+        <v>8.124567474048444</v>
+      </c>
+      <c r="I11">
+        <v>4.38084449089513</v>
+      </c>
+      <c r="J11">
+        <v>0.005483960313442771</v>
+      </c>
+      <c r="K11">
+        <v>0.04548414045353623</v>
+      </c>
+      <c r="L11">
+        <v>0.03564254281154301</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3665/6772/3123</t>
+        </is>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Human Diseases</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cardiovascular disease</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hsa05415</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Diabetic cardiomyopathy</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>205/9392</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>0.01463414634146342</v>
+      </c>
+      <c r="H12">
+        <v>8.084935437589669</v>
+      </c>
+      <c r="I12">
+        <v>4.3673772966825</v>
+      </c>
+      <c r="J12">
+        <v>0.005559172722098872</v>
+      </c>
+      <c r="K12">
+        <v>0.04548414045353623</v>
+      </c>
+      <c r="L12">
+        <v>0.03564254281154301</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>7043/5161/4689</t>
+        </is>
+      </c>
+      <c r="N12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
